--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,35 +12,40 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>action</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>locatorValue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>data</t>
   </si>
   <si>
     <t>paper</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//li[@class='unbxd-as-keysuggestion']</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>allAutoAdress</t>
+  </si>
+  <si>
+    <t>//div[@class='unbxd-as-popular-product-name']</t>
+  </si>
+  <si>
+    <t>allpopular</t>
   </si>
 </sst>
 </file>
@@ -379,34 +384,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -418,20 +435,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>data</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>allpopular</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>watercolor</t>
   </si>
 </sst>
 </file>
@@ -386,9 +392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -456,12 +460,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="5055" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16920" windowHeight="3555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>paper</t>
-  </si>
-  <si>
     <t>Action</t>
   </si>
   <si>
@@ -48,23 +45,65 @@
     <t>allpopular</t>
   </si>
   <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t>watercolor</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>shirt</t>
+  </si>
+  <si>
+    <t>hhcgcg</t>
+  </si>
+  <si>
+    <t>kidsboot</t>
+  </si>
+  <si>
+    <t>kids boot</t>
+  </si>
+  <si>
+    <t>brown boys shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shirt boys brown </t>
+  </si>
+  <si>
+    <t>brownboysshirt</t>
+  </si>
+  <si>
+    <t>10XCHPBZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12.1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,32 +443,32 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -439,7 +480,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -450,7 +493,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -460,22 +503,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>data</t>
   </si>
@@ -79,13 +79,58 @@
   </si>
   <si>
     <t>10XCHPBZ</t>
+  </si>
+  <si>
+    <t>totebag</t>
+  </si>
+  <si>
+    <t>tote bag</t>
+  </si>
+  <si>
+    <t>mood thread t-shirt</t>
+  </si>
+  <si>
+    <t>thread mood t-shirt</t>
+  </si>
+  <si>
+    <t>moodthreadt-shirt</t>
+  </si>
+  <si>
+    <t>1word</t>
+  </si>
+  <si>
+    <t>2word</t>
+  </si>
+  <si>
+    <t>3word</t>
+  </si>
+  <si>
+    <t>4word</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
+  </si>
+  <si>
+    <t>witoutspace</t>
+  </si>
+  <si>
+    <t>with sapce</t>
+  </si>
+  <si>
+    <t>3 words</t>
+  </si>
+  <si>
+    <t>shuffle 3 words</t>
+  </si>
+  <si>
+    <t>3 words without space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +147,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -126,10 +177,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,70 +560,143 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B11" s="4">
+        <v>115455</v>
+      </c>
+      <c r="C11" s="3">
+        <v>115455</v>
+      </c>
+      <c r="E11" s="3">
+        <v>115455</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>data</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>3 words without space</t>
+  </si>
+  <si>
+    <t>3 words with space</t>
   </si>
 </sst>
 </file>
@@ -157,15 +160,27 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,20 +188,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,22 +595,25 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -586,10 +621,10 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -597,10 +632,10 @@
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -608,10 +643,10 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
@@ -619,43 +654,43 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>30</v>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="5">
+        <v>115455</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -663,37 +698,35 @@
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4">
-        <v>115455</v>
-      </c>
-      <c r="C11" s="3">
-        <v>115455</v>
-      </c>
-      <c r="E11" s="3">
-        <v>115455</v>
-      </c>
+      <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="dickblick" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>data</t>
   </si>
@@ -127,6 +128,48 @@
   </si>
   <si>
     <t>3 words with space</t>
+  </si>
+  <si>
+    <t>xpath for</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>search box</t>
+  </si>
+  <si>
+    <t>no. of popular products in autosuggest</t>
+  </si>
+  <si>
+    <t>input[@id='search']</t>
+  </si>
+  <si>
+    <t>div[@class='unbxd-as-popular-product-info']</t>
+  </si>
+  <si>
+    <t>finditparts</t>
+  </si>
+  <si>
+    <t>cable</t>
+  </si>
+  <si>
+    <t>Light Surface</t>
+  </si>
+  <si>
+    <t>Light Surface Mount</t>
+  </si>
+  <si>
+    <t>mount Light Surface</t>
+  </si>
+  <si>
+    <t>lightsurface</t>
+  </si>
+  <si>
+    <t>mountlightsurface</t>
+  </si>
+  <si>
+    <t>moodfabrics</t>
   </si>
 </sst>
 </file>
@@ -211,14 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +565,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -592,10 +637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,132 +649,249 @@
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5">
-        <v>115455</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>77773</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E9" s="6">
+        <v>77773</v>
+      </c>
+      <c r="F9" s="6">
+        <v>115455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/exceldata.xlsx
+++ b/data/exceldata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>data</t>
   </si>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>moodfabrics</t>
+  </si>
+  <si>
+    <t>Infields</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -250,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,6 +268,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,10 +644,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +660,7 @@
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -663,14 +670,17 @@
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s">
         <v>43</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -680,14 +690,17 @@
       <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -697,14 +710,14 @@
       <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -714,14 +727,14 @@
       <c r="C4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -731,14 +744,14 @@
       <c r="C5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -748,14 +761,14 @@
       <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -765,14 +778,14 @@
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -782,14 +795,14 @@
       <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -799,14 +812,14 @@
       <c r="C9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="6">
+      <c r="O9" s="6">
         <v>77773</v>
       </c>
-      <c r="F9" s="6">
+      <c r="P9" s="6">
         <v>115455</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -816,14 +829,14 @@
       <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -833,18 +846,18 @@
       <c r="C11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>25</v>
       </c>
     </row>
